--- a/Base/Teams/Colts/Distributions.xlsx
+++ b/Base/Teams/Colts/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(8.229987928410377, 4.190313401480077, -9.822942231554942, 11.009567846583705)</t>
-  </si>
-  <si>
-    <t>NIG(0.9738834469213774, 0.7222670835825459, 4.609508011301395, 5.99254451092856)</t>
-  </si>
-  <si>
-    <t>JSU(-0.773736352003304, 0.9966201401228951, 1.176466607268308, 2.379112864406311)</t>
-  </si>
-  <si>
-    <t>NCT(3.2229207129253075, 1.5770368315731078, 1.3212166914975096, 4.642096841278201)</t>
+    <t>MIE(8.481922935287269, 4.237989323052444, -9.965146422450527, 11.139222298904546)</t>
+  </si>
+  <si>
+    <t>NIG(1.0513918225868284, 0.7760280958142305, 4.48075767548238, 6.098304193269812)</t>
+  </si>
+  <si>
+    <t>NCT(2.3734245980568076, 1.3136492526689105, -0.16244699254479597, 2.329310234945339)</t>
+  </si>
+  <si>
+    <t>NCT(3.332378016842687, 1.6321949196154626, 1.0256679312456434, 4.620897009046477)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Colts/Distributions.xlsx
+++ b/Base/Teams/Colts/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(8.481922935287269, 4.237989323052444, -9.965146422450527, 11.139222298904546)</t>
-  </si>
-  <si>
-    <t>NIG(1.0513918225868284, 0.7760280958142305, 4.48075767548238, 6.098304193269812)</t>
-  </si>
-  <si>
-    <t>NCT(2.3734245980568076, 1.3136492526689105, -0.16244699254479597, 2.329310234945339)</t>
-  </si>
-  <si>
-    <t>NCT(3.332378016842687, 1.6321949196154626, 1.0256679312456434, 4.620897009046477)</t>
+    <t>MIE(7.891175580313517, 4.0541935852593, -9.40002195553489, 10.556955510359565)</t>
+  </si>
+  <si>
+    <t>NIG(1.0431245840843828, 0.7791191676431977, 4.50706208858047, 5.968798929786272)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8133277738103957, 1.0059530038116793, 1.0845497313291559, 2.4060132146351934)</t>
+  </si>
+  <si>
+    <t>NCT(3.547639280763107, 1.92462760791359, -0.016949325035053066, 4.384565370800585)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Colts/Distributions.xlsx
+++ b/Base/Teams/Colts/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(7.891175580313517, 4.0541935852593, -9.40002195553489, 10.556955510359565)</t>
-  </si>
-  <si>
-    <t>NIG(1.0431245840843828, 0.7791191676431977, 4.50706208858047, 5.968798929786272)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8133277738103957, 1.0059530038116793, 1.0845497313291559, 2.4060132146351934)</t>
-  </si>
-  <si>
-    <t>NCT(3.547639280763107, 1.92462760791359, -0.016949325035053066, 4.384565370800585)</t>
+    <t>MIE(7.953679543400868, 4.056257339577724, -9.373344930178234, 10.501397738292106)</t>
+  </si>
+  <si>
+    <t>NIG(0.9902598653969242, 0.7481245965449379, 4.526136526342097, 5.708367079522397)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7941703336716979, 1.0124765125902626, 1.120878684712627, 2.410839405689891)</t>
+  </si>
+  <si>
+    <t>NCT(3.445188548131043, 1.9152323435338388, -0.018231139591131984, 4.361234560057879)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Colts/Distributions.xlsx
+++ b/Base/Teams/Colts/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(7.953679543400868, 4.056257339577724, -9.373344930178234, 10.501397738292106)</t>
-  </si>
-  <si>
-    <t>NIG(0.9902598653969242, 0.7481245965449379, 4.526136526342097, 5.708367079522397)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7941703336716979, 1.0124765125902626, 1.120878684712627, 2.410839405689891)</t>
-  </si>
-  <si>
-    <t>NCT(3.445188548131043, 1.9152323435338388, -0.018231139591131984, 4.361234560057879)</t>
+    <t>MIE(8.044522085013483, 4.051576211009759, -9.405187126396871, 10.50532368479741)</t>
+  </si>
+  <si>
+    <t>NIG(0.9681324837651086, 0.7278351810495378, 4.6871252690949605, 5.627473558382173)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8284919241294476, 1.0230501081776773, 0.997942388522383, 2.391106250688419)</t>
+  </si>
+  <si>
+    <t>NCT(3.5004362600298995, 1.91752511366082, -0.018546684878672854, 4.347317552970066)</t>
   </si>
 </sst>
 </file>
